--- a/test/integrated/worksheet/demo.xlsx
+++ b/test/integrated/worksheet/demo.xlsx
@@ -6,10 +6,10 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>3</v>
       </c>
     </row>

--- a/test/integrated/worksheet/demo.xlsx
+++ b/test/integrated/worksheet/demo.xlsx
@@ -5,12 +5,6 @@
     <row r="2">
       <c r="A2" s="1">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
